--- a/Homework6/sigma.xlsx
+++ b/Homework6/sigma.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -56,9 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -358,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -393,6 +399,201 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>42314</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>42317</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>42318</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>42320</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>42341</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>42354</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>42355</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>42361</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>42362</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>42366</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>42367</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>42368</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
